--- a/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/17.cursor_de_ajuste/12+-+Tipos+de+Cursores+(Ajuste).xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/17.cursor_de_ajuste/12+-+Tipos+de+Cursores+(Ajuste).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2. basico_introducao_excel\17.cursor_de_ajuste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2.basico_introducao_excel\17.cursor_de_ajuste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666DDA0-C347-4E9F-8624-6D086D8A294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2DC5A-A96A-4EDA-AB43-C2D1E286FFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
@@ -691,9 +691,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -738,7 +738,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1023,7 @@
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="5.21875" customWidth="1"/>
     <col min="9" max="9" width="6.44140625" customWidth="1"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
